--- a/IPL/Rajasthan Royals/Ankit Rajpoot .xlsx
+++ b/IPL/Rajasthan Royals/Ankit Rajpoot .xlsx
@@ -408,7 +408,7 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C2" t="str">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" t="str">
         <v>5</v>
@@ -417,7 +417,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -428,7 +428,7 @@
         <v>Rajasthan Royals</v>
       </c>
       <c r="C3" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="str">
         <v>5</v>
@@ -437,7 +437,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
